--- a/src/test/resources/test_data/Receipts_Chicago_TestDemo.xlsx
+++ b/src/test/resources/test_data/Receipts_Chicago_TestDemo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="52">
   <si>
     <t>#</t>
   </si>
@@ -59,46 +59,118 @@
     <t>[CARD] Graphics Card</t>
   </si>
   <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>different</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Demo Portal User</t>
+  </si>
+  <si>
+    <t>Partner2</t>
+  </si>
+  <si>
+    <t>[CONS_DEL01] Server</t>
+  </si>
+  <si>
+    <t>Demo User</t>
+  </si>
+  <si>
+    <t>Partner3</t>
+  </si>
+  <si>
+    <t>[CONS_DEL02] Little server</t>
+  </si>
+  <si>
+    <t>[CPUi5] Processor Core i5 2.70 Ghz</t>
+  </si>
+  <si>
+    <t>[CONS_DEL03] Basic Computer</t>
+  </si>
+  <si>
+    <t>Source Document</t>
+  </si>
+  <si>
+    <t>ACD, samuel jackson</t>
+  </si>
+  <si>
     <t>TestDemo</t>
   </si>
   <si>
     <t>Demo presenation</t>
   </si>
   <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>Partner2</t>
-  </si>
-  <si>
-    <t>[CONS_DEL01] Server</t>
-  </si>
-  <si>
-    <t>Call</t>
+    <t>testing item</t>
+  </si>
+  <si>
+    <t>ASUSTeK, James Miller</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>ASUSTeK, Matthew</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>ASUSTeK, Peter Mitchell</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Agrolait, Laith Jubair</t>
+  </si>
+  <si>
+    <t>Agrolait, Michel Fletcher</t>
   </si>
   <si>
     <t>Meeting</t>
   </si>
   <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>Partner3</t>
-  </si>
-  <si>
-    <t>[CONS_DEL02] Little server</t>
-  </si>
-  <si>
-    <t>Demo Portal User</t>
-  </si>
-  <si>
-    <t>[CPUi5] Processor Core i5 2.70 Ghz</t>
-  </si>
-  <si>
-    <t>[CONS_DEL03] Basic Computer</t>
-  </si>
-  <si>
-    <t>Demo User</t>
+    <t>BriteErp, Brad Pitt</t>
+  </si>
+  <si>
+    <t>ACD, Partner1</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>ACD, Alex</t>
+  </si>
+  <si>
+    <t>Camptocamp, Benjamin Flores</t>
+  </si>
+  <si>
+    <t>Camptocamp, Phillipp Miller</t>
+  </si>
+  <si>
+    <t>Agrolait, Thomas Passot</t>
+  </si>
+  <si>
+    <t>China Export, Jacob Taylor</t>
+  </si>
+  <si>
+    <t>DELL Comp, John Smith</t>
+  </si>
+  <si>
+    <t>Delta PC, Charlie Bernard</t>
+  </si>
+  <si>
+    <t>Delta PC, Morgan Rose</t>
+  </si>
+  <si>
+    <t>Delta PC, Albert Aslan</t>
+  </si>
+  <si>
+    <t>Delta PC, Richard Ellis</t>
   </si>
 </sst>
 </file>
@@ -200,7 +272,7 @@
     <col customWidth="1" min="1" max="1" width="3.86"/>
     <col customWidth="1" min="2" max="2" width="24.43"/>
     <col customWidth="1" min="3" max="3" width="44.57"/>
-    <col customWidth="1" min="4" max="4" width="31.86"/>
+    <col customWidth="1" min="4" max="4" width="21.71"/>
     <col customWidth="1" min="5" max="5" width="20.71"/>
     <col customWidth="1" min="6" max="6" width="22.71"/>
     <col customWidth="1" min="7" max="7" width="17.29"/>
@@ -219,7 +291,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -245,19 +317,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="4">
-        <v>884.23</v>
+        <v>884.0</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -274,19 +349,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
-        <v>567.71</v>
+        <v>567.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -303,19 +381,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D4" s="4">
-        <v>463.88</v>
+        <v>463.0</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -332,19 +413,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
-        <v>431.74</v>
+        <v>431.0</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -361,19 +445,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
-        <v>280.8</v>
+        <v>288.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -390,19 +477,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="4">
-        <v>486.09</v>
+        <v>48609.0</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -419,19 +509,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
-        <v>160.51</v>
+        <v>16051.0</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -448,19 +541,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
-        <v>385.92</v>
+        <v>38592.0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -477,19 +573,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
-        <v>143.83</v>
+        <v>14383.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -506,19 +605,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
-        <v>166.95</v>
+        <v>16695.0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -535,19 +637,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="4">
-        <v>884.14</v>
+        <v>88414.0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -564,19 +669,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
-        <v>92.82</v>
+        <v>9282.0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -593,19 +701,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
-        <v>38.38</v>
+        <v>3838.0</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -622,19 +733,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
-        <v>251.5</v>
+        <v>251.0</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -651,19 +765,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
-        <v>674.47</v>
+        <v>674.0</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -680,19 +797,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D17" s="4">
-        <v>367.11</v>
+        <v>367.0</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -709,19 +829,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
-        <v>762.73</v>
+        <v>762.0</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -738,19 +861,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
-      </c>
       <c r="D19" s="4">
-        <v>843.91</v>
+        <v>843.0</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -767,19 +893,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
-        <v>909.37</v>
+        <v>909.0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -796,19 +925,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
-        <v>37.26</v>
+        <v>37.0</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -889,10 +1021,10 @@
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -909,16 +1041,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -935,16 +1067,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -964,13 +1096,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -987,16 +1119,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -1013,7 +1145,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1022,7 +1154,7 @@
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -1042,13 +1174,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -1065,16 +1197,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -1091,16 +1223,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -1120,13 +1252,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -1143,7 +1275,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1152,7 +1284,7 @@
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -1169,16 +1301,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -1198,13 +1330,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -1221,16 +1353,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -1247,16 +1379,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -1282,7 +1414,7 @@
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -1299,16 +1431,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -1325,16 +1457,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -1354,13 +1486,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -1377,16 +1509,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -1484,10 +1616,10 @@
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -1499,7 +1631,7 @@
         <v>0.5326388888888889</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -1507,16 +1639,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -1528,7 +1660,7 @@
         <v>0.5847222222222223</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1536,16 +1668,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -1557,7 +1689,7 @@
         <v>0.8236111111111111</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1568,13 +1700,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -1586,7 +1718,7 @@
         <v>0.5902777777777778</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1594,16 +1726,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -1615,7 +1747,7 @@
         <v>0.4673611111111111</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -1623,7 +1755,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -1632,7 +1764,7 @@
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -1644,7 +1776,7 @@
         <v>0.7590277777777777</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -1655,13 +1787,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -1673,7 +1805,7 @@
         <v>0.6604166666666667</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -1681,16 +1813,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -1702,7 +1834,7 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -1710,16 +1842,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -1731,7 +1863,7 @@
         <v>0.7722222222222223</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -1742,13 +1874,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -1760,7 +1892,7 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1768,7 +1900,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -1777,7 +1909,7 @@
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -1789,7 +1921,7 @@
         <v>0.7097222222222223</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -1797,16 +1929,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -1818,7 +1950,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -1829,13 +1961,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -1847,7 +1979,7 @@
         <v>0.6777777777777778</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -1855,16 +1987,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -1876,7 +2008,7 @@
         <v>0.5458333333333333</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -1884,16 +2016,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -1905,7 +2037,7 @@
         <v>0.4</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -1922,7 +2054,7 @@
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -1934,7 +2066,7 @@
         <v>0.42986111111111114</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -1942,16 +2074,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -1963,7 +2095,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -1971,16 +2103,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -1992,7 +2124,7 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -2003,13 +2135,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -2021,7 +2153,7 @@
         <v>0.3763888888888889</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2029,16 +2161,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -2050,7 +2182,7 @@
         <v>0.35347222222222224</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2129,10 +2261,10 @@
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -2144,7 +2276,7 @@
         <v>0.5326388888888889</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3">
@@ -2152,16 +2284,16 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -2173,7 +2305,7 @@
         <v>0.5847222222222223</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -2181,16 +2313,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -2202,7 +2334,7 @@
         <v>0.8236111111111111</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2213,13 +2345,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -2231,7 +2363,7 @@
         <v>0.5902777777777778</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -2239,16 +2371,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -2260,7 +2392,7 @@
         <v>0.4673611111111111</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -2268,7 +2400,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -2277,7 +2409,7 @@
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -2289,7 +2421,7 @@
         <v>0.7590277777777777</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
@@ -2300,13 +2432,13 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -2318,7 +2450,7 @@
         <v>0.6604166666666667</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
@@ -2326,16 +2458,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -2347,7 +2479,7 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
@@ -2355,16 +2487,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -2376,7 +2508,7 @@
         <v>0.7722222222222223</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11">
@@ -2387,13 +2519,13 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -2405,7 +2537,7 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -2413,7 +2545,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -2422,7 +2554,7 @@
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -2434,7 +2566,7 @@
         <v>0.7097222222222223</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
@@ -2442,16 +2574,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -2463,7 +2595,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2474,13 +2606,13 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -2492,7 +2624,7 @@
         <v>0.6777777777777778</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15">
@@ -2500,16 +2632,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -2521,7 +2653,7 @@
         <v>0.5458333333333333</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
@@ -2529,16 +2661,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -2550,7 +2682,7 @@
         <v>0.4</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17">
@@ -2567,7 +2699,7 @@
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -2579,7 +2711,7 @@
         <v>0.42986111111111114</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
@@ -2587,16 +2719,16 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -2608,7 +2740,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="19">
@@ -2616,16 +2748,16 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -2637,7 +2769,7 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20">
@@ -2648,13 +2780,13 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -2666,7 +2798,7 @@
         <v>0.3763888888888889</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
@@ -2674,16 +2806,16 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>
@@ -2695,7 +2827,7 @@
         <v>0.35347222222222224</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2767,10 +2899,10 @@
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>16</v>
@@ -2787,19 +2919,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>16</v>
@@ -2816,19 +2948,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -2848,16 +2980,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>16</v>
@@ -2874,19 +3006,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
@@ -2903,7 +3035,7 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>13</v>
@@ -2912,10 +3044,10 @@
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>16</v>
@@ -2935,16 +3067,16 @@
         <v>12</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>16</v>
@@ -2961,19 +3093,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>16</v>
@@ -2990,19 +3122,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>16</v>
@@ -3022,16 +3154,16 @@
         <v>12</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>16</v>
@@ -3048,7 +3180,7 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -3057,10 +3189,10 @@
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>16</v>
@@ -3077,19 +3209,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>16</v>
@@ -3109,16 +3241,16 @@
         <v>12</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
@@ -3135,19 +3267,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -3164,19 +3296,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
@@ -3202,10 +3334,10 @@
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
@@ -3222,19 +3354,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>16</v>
@@ -3251,19 +3383,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>16</v>
@@ -3283,16 +3415,16 @@
         <v>12</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>16</v>
@@ -3309,19 +3441,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>16</v>

--- a/src/test/resources/test_data/Receipts_Chicago_TestDemo.xlsx
+++ b/src/test/resources/test_data/Receipts_Chicago_TestDemo.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -53,12 +53,21 @@
     <t>Assigned To</t>
   </si>
   <si>
+    <t>Source Document</t>
+  </si>
+  <si>
     <t>Partner1</t>
   </si>
   <si>
+    <t>ACD, samuel jackson</t>
+  </si>
+  <si>
     <t>[CARD] Graphics Card</t>
   </si>
   <si>
+    <t>Meeting</t>
+  </si>
+  <si>
     <t>Call</t>
   </si>
   <si>
@@ -68,109 +77,157 @@
     <t>April</t>
   </si>
   <si>
+    <t>PO00884</t>
+  </si>
+  <si>
+    <t>TestDemo</t>
+  </si>
+  <si>
+    <t>Demo presenation</t>
+  </si>
+  <si>
+    <t>testing item</t>
+  </si>
+  <si>
+    <t>Partner2</t>
+  </si>
+  <si>
+    <t>[CONS_DEL01] Server</t>
+  </si>
+  <si>
+    <t>ASUSTeK, James Miller</t>
+  </si>
+  <si>
+    <t>PO00567</t>
+  </si>
+  <si>
+    <t>Partner3</t>
+  </si>
+  <si>
+    <t>presentation</t>
+  </si>
+  <si>
+    <t>[CONS_DEL02] Little server</t>
+  </si>
+  <si>
+    <t>ASUSTeK, Matthew</t>
+  </si>
+  <si>
+    <t>[CPUi5] Processor Core i5 2.70 Ghz</t>
+  </si>
+  <si>
+    <t>PO00463</t>
+  </si>
+  <si>
+    <t>review</t>
+  </si>
+  <si>
+    <t>[CONS_DEL03] Basic Computer</t>
+  </si>
+  <si>
+    <t>ASUSTeK, Peter Mitchell</t>
+  </si>
+  <si>
+    <t>PO00431</t>
+  </si>
+  <si>
+    <t>pricing</t>
+  </si>
+  <si>
+    <t>Agrolait, Laith Jubair</t>
+  </si>
+  <si>
+    <t>PO00288</t>
+  </si>
+  <si>
+    <t>Agrolait, Michel Fletcher</t>
+  </si>
+  <si>
+    <t>PO00486</t>
+  </si>
+  <si>
+    <t>BriteErp, Brad Pitt</t>
+  </si>
+  <si>
+    <t>PO00160</t>
+  </si>
+  <si>
+    <t>ACD, Partner1</t>
+  </si>
+  <si>
+    <t>PO0038</t>
+  </si>
+  <si>
+    <t>ACD</t>
+  </si>
+  <si>
+    <t>PO00143</t>
+  </si>
+  <si>
+    <t>PO00166</t>
+  </si>
+  <si>
+    <t>ACD, Alex</t>
+  </si>
+  <si>
+    <t>Camptocamp, Benjamin Flores</t>
+  </si>
+  <si>
+    <t>PO009282</t>
+  </si>
+  <si>
+    <t>Camptocamp, Phillipp Miller</t>
+  </si>
+  <si>
+    <t>PO003838</t>
+  </si>
+  <si>
+    <t>Agrolait, Thomas Passot</t>
+  </si>
+  <si>
+    <t>PO00251</t>
+  </si>
+  <si>
+    <t>China Export, Jacob Taylor</t>
+  </si>
+  <si>
+    <t>PO00674</t>
+  </si>
+  <si>
+    <t>DELL Comp, John Smith</t>
+  </si>
+  <si>
+    <t>PO00367</t>
+  </si>
+  <si>
+    <t>Delta PC, Charlie Bernard</t>
+  </si>
+  <si>
+    <t>PO00762</t>
+  </si>
+  <si>
+    <t>Delta PC, Morgan Rose</t>
+  </si>
+  <si>
+    <t>PO00843</t>
+  </si>
+  <si>
+    <t>Delta PC, Albert Aslan</t>
+  </si>
+  <si>
+    <t>PO00909</t>
+  </si>
+  <si>
+    <t>Delta PC, Richard Ellis</t>
+  </si>
+  <si>
+    <t>PO0037</t>
+  </si>
+  <si>
     <t>Demo Portal User</t>
   </si>
   <si>
-    <t>Partner2</t>
-  </si>
-  <si>
-    <t>[CONS_DEL01] Server</t>
-  </si>
-  <si>
     <t>Demo User</t>
-  </si>
-  <si>
-    <t>Partner3</t>
-  </si>
-  <si>
-    <t>[CONS_DEL02] Little server</t>
-  </si>
-  <si>
-    <t>[CPUi5] Processor Core i5 2.70 Ghz</t>
-  </si>
-  <si>
-    <t>[CONS_DEL03] Basic Computer</t>
-  </si>
-  <si>
-    <t>Source Document</t>
-  </si>
-  <si>
-    <t>ACD, samuel jackson</t>
-  </si>
-  <si>
-    <t>TestDemo</t>
-  </si>
-  <si>
-    <t>Demo presenation</t>
-  </si>
-  <si>
-    <t>testing item</t>
-  </si>
-  <si>
-    <t>ASUSTeK, James Miller</t>
-  </si>
-  <si>
-    <t>presentation</t>
-  </si>
-  <si>
-    <t>ASUSTeK, Matthew</t>
-  </si>
-  <si>
-    <t>review</t>
-  </si>
-  <si>
-    <t>ASUSTeK, Peter Mitchell</t>
-  </si>
-  <si>
-    <t>pricing</t>
-  </si>
-  <si>
-    <t>Agrolait, Laith Jubair</t>
-  </si>
-  <si>
-    <t>Agrolait, Michel Fletcher</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
-    <t>BriteErp, Brad Pitt</t>
-  </si>
-  <si>
-    <t>ACD, Partner1</t>
-  </si>
-  <si>
-    <t>ACD</t>
-  </si>
-  <si>
-    <t>ACD, Alex</t>
-  </si>
-  <si>
-    <t>Camptocamp, Benjamin Flores</t>
-  </si>
-  <si>
-    <t>Camptocamp, Phillipp Miller</t>
-  </si>
-  <si>
-    <t>Agrolait, Thomas Passot</t>
-  </si>
-  <si>
-    <t>China Export, Jacob Taylor</t>
-  </si>
-  <si>
-    <t>DELL Comp, John Smith</t>
-  </si>
-  <si>
-    <t>Delta PC, Charlie Bernard</t>
-  </si>
-  <si>
-    <t>Delta PC, Morgan Rose</t>
-  </si>
-  <si>
-    <t>Delta PC, Albert Aslan</t>
-  </si>
-  <si>
-    <t>Delta PC, Richard Ellis</t>
   </si>
 </sst>
 </file>
@@ -291,7 +348,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
@@ -317,25 +374,25 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4">
-        <v>884.0</v>
+        <v>15</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
         <v>27.0</v>
@@ -349,25 +406,25 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>567.0</v>
+        <v>25</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4">
         <v>21.0</v>
@@ -381,25 +438,25 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4">
-        <v>463.0</v>
+        <v>30</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>21.0</v>
@@ -413,25 +470,25 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="4">
-        <v>431.0</v>
+        <v>32</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
         <v>29.0</v>
@@ -445,25 +502,25 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4">
-        <v>288.0</v>
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4">
         <v>12.0</v>
@@ -477,25 +534,25 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="4">
-        <v>48609.0</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
         <v>18.0</v>
@@ -509,25 +566,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4">
-        <v>16051.0</v>
+        <v>25</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>22.0</v>
@@ -541,25 +598,25 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="4">
-        <v>38592.0</v>
+        <v>30</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4">
         <v>22.0</v>
@@ -573,25 +630,25 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="4">
-        <v>14383.0</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4">
         <v>29.0</v>
@@ -605,25 +662,25 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4">
-        <v>16695.0</v>
+        <v>35</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4">
         <v>17.0</v>
@@ -637,25 +694,25 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="4">
-        <v>88414.0</v>
+        <v>15</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <v>17.0</v>
@@ -669,25 +726,25 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D13" s="4">
-        <v>9282.0</v>
+        <v>25</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="4">
         <v>13.0</v>
@@ -701,25 +758,25 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3838.0</v>
+        <v>30</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>54</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4">
         <v>5.0</v>
@@ -733,25 +790,25 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="4">
-        <v>251.0</v>
+        <v>32</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4">
         <v>25.0</v>
@@ -765,25 +822,25 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="4">
-        <v>674.0</v>
+        <v>35</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>23.0</v>
@@ -797,25 +854,25 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="4">
-        <v>367.0</v>
+        <v>15</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>28.0</v>
@@ -829,25 +886,25 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4">
-        <v>762.0</v>
+        <v>25</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4">
         <v>5.0</v>
@@ -861,25 +918,25 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="4">
-        <v>843.0</v>
+        <v>30</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <v>10.0</v>
@@ -893,25 +950,25 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="4">
-        <v>909.0</v>
+        <v>32</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>66</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
         <v>19.0</v>
@@ -925,25 +982,25 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" s="4">
-        <v>37.0</v>
+        <v>35</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4">
         <v>6.0</v>
@@ -1012,22 +1069,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
         <v>27.0</v>
@@ -1041,19 +1098,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4">
         <v>21.0</v>
@@ -1067,19 +1124,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>21.0</v>
@@ -1093,19 +1150,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
         <v>29.0</v>
@@ -1119,19 +1176,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4">
         <v>12.0</v>
@@ -1145,19 +1202,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
         <v>18.0</v>
@@ -1171,19 +1228,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>22.0</v>
@@ -1197,19 +1254,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4">
         <v>22.0</v>
@@ -1223,19 +1280,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4">
         <v>29.0</v>
@@ -1249,19 +1306,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4">
         <v>17.0</v>
@@ -1275,19 +1332,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <v>17.0</v>
@@ -1301,19 +1358,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="4">
         <v>13.0</v>
@@ -1327,19 +1384,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4">
         <v>5.0</v>
@@ -1353,19 +1410,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4">
         <v>25.0</v>
@@ -1379,19 +1436,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>23.0</v>
@@ -1405,19 +1462,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>28.0</v>
@@ -1431,19 +1488,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4">
         <v>5.0</v>
@@ -1457,19 +1514,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <v>10.0</v>
@@ -1483,19 +1540,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
         <v>19.0</v>
@@ -1509,19 +1566,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4">
         <v>6.0</v>
@@ -1607,22 +1664,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
         <v>27.0</v>
@@ -1631,7 +1688,7 @@
         <v>0.5326388888888889</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -1639,19 +1696,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4">
         <v>21.0</v>
@@ -1660,7 +1717,7 @@
         <v>0.5847222222222223</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -1668,19 +1725,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>21.0</v>
@@ -1689,7 +1746,7 @@
         <v>0.8236111111111111</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -1697,19 +1754,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
         <v>29.0</v>
@@ -1718,7 +1775,7 @@
         <v>0.5902777777777778</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -1726,19 +1783,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4">
         <v>12.0</v>
@@ -1747,7 +1804,7 @@
         <v>0.4673611111111111</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -1755,19 +1812,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
         <v>18.0</v>
@@ -1776,7 +1833,7 @@
         <v>0.7590277777777777</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -1784,19 +1841,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>22.0</v>
@@ -1805,7 +1862,7 @@
         <v>0.6604166666666667</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1813,19 +1870,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4">
         <v>22.0</v>
@@ -1834,7 +1891,7 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1842,19 +1899,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4">
         <v>29.0</v>
@@ -1863,7 +1920,7 @@
         <v>0.7722222222222223</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -1871,19 +1928,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4">
         <v>17.0</v>
@@ -1892,7 +1949,7 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -1900,19 +1957,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <v>17.0</v>
@@ -1921,7 +1978,7 @@
         <v>0.7097222222222223</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -1929,19 +1986,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="4">
         <v>13.0</v>
@@ -1950,7 +2007,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -1958,19 +2015,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4">
         <v>5.0</v>
@@ -1979,7 +2036,7 @@
         <v>0.6777777777777778</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -1987,19 +2044,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4">
         <v>25.0</v>
@@ -2008,7 +2065,7 @@
         <v>0.5458333333333333</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2016,19 +2073,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>23.0</v>
@@ -2037,7 +2094,7 @@
         <v>0.4</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -2045,19 +2102,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>28.0</v>
@@ -2066,7 +2123,7 @@
         <v>0.42986111111111114</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2074,19 +2131,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4">
         <v>5.0</v>
@@ -2095,7 +2152,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2103,19 +2160,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <v>10.0</v>
@@ -2124,7 +2181,7 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -2132,19 +2189,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
         <v>19.0</v>
@@ -2153,7 +2210,7 @@
         <v>0.3763888888888889</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -2161,19 +2218,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4">
         <v>6.0</v>
@@ -2182,7 +2239,7 @@
         <v>0.35347222222222224</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2252,22 +2309,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
         <v>27.0</v>
@@ -2276,7 +2333,7 @@
         <v>0.5326388888888889</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -2284,19 +2341,19 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4">
         <v>21.0</v>
@@ -2305,7 +2362,7 @@
         <v>0.5847222222222223</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -2313,19 +2370,19 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>21.0</v>
@@ -2334,7 +2391,7 @@
         <v>0.8236111111111111</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2342,19 +2399,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
         <v>29.0</v>
@@ -2363,7 +2420,7 @@
         <v>0.5902777777777778</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -2371,19 +2428,19 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4">
         <v>12.0</v>
@@ -2392,7 +2449,7 @@
         <v>0.4673611111111111</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7">
@@ -2400,19 +2457,19 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
         <v>18.0</v>
@@ -2421,7 +2478,7 @@
         <v>0.7590277777777777</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8">
@@ -2429,19 +2486,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>22.0</v>
@@ -2450,7 +2507,7 @@
         <v>0.6604166666666667</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -2458,19 +2515,19 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4">
         <v>22.0</v>
@@ -2479,7 +2536,7 @@
         <v>0.4777777777777778</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -2487,19 +2544,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4">
         <v>29.0</v>
@@ -2508,7 +2565,7 @@
         <v>0.7722222222222223</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -2516,19 +2573,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4">
         <v>17.0</v>
@@ -2537,7 +2594,7 @@
         <v>0.36319444444444443</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -2545,19 +2602,19 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <v>17.0</v>
@@ -2566,7 +2623,7 @@
         <v>0.7097222222222223</v>
       </c>
       <c r="O12" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -2574,19 +2631,19 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="4">
         <v>13.0</v>
@@ -2595,7 +2652,7 @@
         <v>0.3923611111111111</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -2603,19 +2660,19 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4">
         <v>5.0</v>
@@ -2624,7 +2681,7 @@
         <v>0.6777777777777778</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -2632,19 +2689,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4">
         <v>25.0</v>
@@ -2653,7 +2710,7 @@
         <v>0.5458333333333333</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -2661,19 +2718,19 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>23.0</v>
@@ -2682,7 +2739,7 @@
         <v>0.4</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17">
@@ -2690,19 +2747,19 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>28.0</v>
@@ -2711,7 +2768,7 @@
         <v>0.42986111111111114</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2719,19 +2776,19 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4">
         <v>5.0</v>
@@ -2740,7 +2797,7 @@
         <v>0.5555555555555556</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19">
@@ -2748,19 +2805,19 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <v>10.0</v>
@@ -2769,7 +2826,7 @@
         <v>0.36527777777777776</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20">
@@ -2777,19 +2834,19 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
         <v>19.0</v>
@@ -2798,7 +2855,7 @@
         <v>0.3763888888888889</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>17</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21">
@@ -2806,19 +2863,19 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4">
         <v>6.0</v>
@@ -2827,7 +2884,7 @@
         <v>0.35347222222222224</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -2890,22 +2947,22 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4">
         <v>884.23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I2" s="4">
         <v>27.0</v>
@@ -2919,22 +2976,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>567.71</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I3" s="4">
         <v>21.0</v>
@@ -2948,22 +3005,22 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
         <v>463.88</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I4" s="4">
         <v>21.0</v>
@@ -2977,22 +3034,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D5" s="4">
         <v>431.74</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I5" s="4">
         <v>29.0</v>
@@ -3006,22 +3063,22 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
         <v>280.8</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I6" s="4">
         <v>12.0</v>
@@ -3035,22 +3092,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="4">
         <v>486.09</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I7" s="4">
         <v>18.0</v>
@@ -3064,22 +3121,22 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D8" s="4">
         <v>160.51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I8" s="4">
         <v>22.0</v>
@@ -3093,22 +3150,22 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D9" s="4">
         <v>385.92</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I9" s="4">
         <v>22.0</v>
@@ -3122,22 +3179,22 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D10" s="4">
         <v>143.83</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I10" s="4">
         <v>29.0</v>
@@ -3151,22 +3208,22 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D11" s="4">
         <v>166.95</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4">
         <v>17.0</v>
@@ -3180,22 +3237,22 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4">
         <v>884.14</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I12" s="4">
         <v>17.0</v>
@@ -3209,22 +3266,22 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
         <v>92.82</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I13" s="4">
         <v>13.0</v>
@@ -3238,22 +3295,22 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4">
         <v>38.38</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I14" s="4">
         <v>5.0</v>
@@ -3267,22 +3324,22 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D15" s="4">
         <v>251.5</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I15" s="4">
         <v>25.0</v>
@@ -3296,22 +3353,22 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D16" s="4">
         <v>674.47</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I16" s="4">
         <v>23.0</v>
@@ -3325,22 +3382,22 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D17" s="4">
         <v>367.11</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I17" s="4">
         <v>28.0</v>
@@ -3354,22 +3411,22 @@
         <v>17.0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D18" s="4">
         <v>762.73</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I18" s="4">
         <v>5.0</v>
@@ -3383,22 +3440,22 @@
         <v>18.0</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D19" s="4">
         <v>843.91</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I19" s="4">
         <v>10.0</v>
@@ -3412,22 +3469,22 @@
         <v>19.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D20" s="4">
         <v>909.37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I20" s="4">
         <v>19.0</v>
@@ -3441,22 +3498,22 @@
         <v>20.0</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="D21" s="4">
         <v>37.26</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="I21" s="4">
         <v>6.0</v>
